--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3510.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3510.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.450463919244321</v>
+        <v>2.088919401168823</v>
       </c>
       <c r="B1">
-        <v>2.820439679026374</v>
+        <v>2.936525106430054</v>
       </c>
       <c r="C1">
-        <v>3.736602042116509</v>
+        <v>2.2719886302948</v>
       </c>
       <c r="D1">
-        <v>3.676054930001546</v>
+        <v>2.133402109146118</v>
       </c>
       <c r="E1">
-        <v>1.192449569783524</v>
+        <v>2.130094289779663</v>
       </c>
     </row>
   </sheetData>
